--- a/files/suicidios2019CCAA.xlsx
+++ b/files/suicidios2019CCAA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F009320-7955-6A43-81DB-195EFD575AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55427DB-27C5-9C4D-90B1-11F14110C06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{CB503229-6ACE-4C1D-A711-FB5F9A452304}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="183">
   <si>
     <t>Andalucía</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Cualitativa nominal</t>
   </si>
   <si>
@@ -365,75 +362,9 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
   </si>
   <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Conjunto</t>
-  </si>
-  <si>
     <t>gastomed</t>
   </si>
   <si>
@@ -458,30 +389,6 @@
     <t>Comunidades Autónomas de España</t>
   </si>
   <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
-  </si>
-  <si>
     <t>IOE + Operación estadística</t>
   </si>
   <si>
@@ -510,9 +417,6 @@
   </si>
   <si>
     <t> 30468 Estadística de Violencia Doméstica y Violencia de Género</t>
-  </si>
-  <si>
-    <t>Análisis Discriminante</t>
   </si>
   <si>
     <r>
@@ -668,6 +572,171 @@
       <t>5.  Conclusión.</t>
     </r>
   </si>
+  <si>
+    <t>Conjuntos</t>
+  </si>
+  <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
+  <si>
+    <t>30308 Encuesta de Población Activa (EPA).</t>
+  </si>
 </sst>
 </file>
 
@@ -676,7 +745,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,8 +826,31 @@
       <sz val="11"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,24 +860,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,6 +879,72 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1048,7 +1188,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,13 +1231,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,13 +1294,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1194,6 +1360,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1519,176 +1709,176 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="B14" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1720,16 +1910,16 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -1738,25 +1928,25 @@
         <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>20</v>
@@ -1765,40 +1955,40 @@
         <v>21</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="V1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
@@ -3479,7 +3669,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3496,621 +3686,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>148</v>
+      <c r="H1" s="38" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>70</v>
+      <c r="A2" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="27">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>138</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>2021</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2">
         <v>2021</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="46"/>
+        <v>119</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>2020</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>131</v>
+      <c r="A8" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="27">
-        <v>2021</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="2">
         <v>2019</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
+        <v>121</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>2019</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="36"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C11" s="2">
         <v>2021</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="46"/>
+        <v>122</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>67</v>
+      <c r="A12" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="27">
+        <v>65</v>
+      </c>
+      <c r="C12" s="20">
         <v>2021</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2021</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="27">
-        <v>2020</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="27">
-        <v>2021</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="28">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="46"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5">
         <v>2019</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>84</v>
+      <c r="A18" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="28">
+        <v>82</v>
+      </c>
+      <c r="C18" s="21">
         <v>2021</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="C20" s="21">
         <v>2019</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="D20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="21">
         <v>2019</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="28">
-        <v>2019</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="28">
-        <v>2020</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
         <v>2020</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="35"/>
+      <c r="G23" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>2020</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2">
         <v>2020</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="36"/>
+      <c r="F25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="C26" s="20">
         <v>2021</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="46"/>
+      <c r="F26" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2">
         <v>2021</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="35"/>
+      <c r="G27" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
         <v>2021</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="37"/>
+      <c r="F28" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4160,375 +4349,641 @@
     <hyperlink ref="F7" r:id="rId6" tooltip="Ficha programa anual" display="https://www.ine.es/dyngs/IOE/es/fichaProg.htm?cid=1259946011315" xr:uid="{01614B7A-899E-42FA-A5E0-25498B5D4B21}"/>
     <hyperlink ref="F24" r:id="rId7" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127417" xr:uid="{5691D51F-3E0C-4AA6-ABDE-CB83C74B690F}"/>
     <hyperlink ref="F6" r:id="rId8" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127222" xr:uid="{F0008CE3-F076-4058-B4E4-7B98A4CA5182}"/>
-    <hyperlink ref="F10" r:id="rId9" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127294" xr:uid="{093B891A-C128-4D51-8DF7-3C55DFEF64C5}"/>
-    <hyperlink ref="F26" r:id="rId10" display="16028 Estadística de Movimientos Turísticos en Frontera" xr:uid="{9625CDC2-9CF2-4C14-9201-8FE82D0EAC41}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{A37FB29C-4ABE-46DD-9C92-2038570DC889}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{F3C35EE9-6B3B-4838-9EC5-95B8C265C186}"/>
-    <hyperlink ref="F14" r:id="rId13" tooltip="Ver ficha del IOE actual" xr:uid="{516715B5-65EF-4C1D-8342-48836C907E5D}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{645E55DE-8443-49C5-8C80-713824A2236A}"/>
-    <hyperlink ref="F11" r:id="rId15" tooltip="Ficha programa anual" display="https://www.ine.es/dyngs/IOE/es/fichaProg.htm?cid=1259946011386" xr:uid="{321F202D-DD2E-4673-91FB-112E7C40A39A}"/>
-    <hyperlink ref="F9" r:id="rId16" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127294" xr:uid="{0CF8C802-025D-D74A-AE33-A7827C3DD201}"/>
-    <hyperlink ref="F22" r:id="rId17" tooltip="Ficha Plan" xr:uid="{11CD31F8-2237-4756-84DA-304BC7963AC4}"/>
-    <hyperlink ref="F5" r:id="rId18" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127157" xr:uid="{6B782F01-38E9-4251-A8F1-D144563912ED}"/>
-    <hyperlink ref="F4" r:id="rId19" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127417" xr:uid="{D72037A8-0271-474E-BB5A-541D099743B2}"/>
-    <hyperlink ref="F16" r:id="rId20" xr:uid="{5C8BFBA1-51C9-F54A-BBA2-A484B9A1C7F9}"/>
-    <hyperlink ref="F17" r:id="rId21" xr:uid="{F451DBC9-AADD-DE44-9164-5B46F3712631}"/>
-    <hyperlink ref="F2" r:id="rId22" xr:uid="{6B0B7F25-5B9D-B942-B51F-F89308606A4C}"/>
+    <hyperlink ref="F26" r:id="rId9" display="16028 Estadística de Movimientos Turísticos en Frontera" xr:uid="{9625CDC2-9CF2-4C14-9201-8FE82D0EAC41}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{A37FB29C-4ABE-46DD-9C92-2038570DC889}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{F3C35EE9-6B3B-4838-9EC5-95B8C265C186}"/>
+    <hyperlink ref="F14" r:id="rId12" tooltip="Ver ficha del IOE actual" xr:uid="{516715B5-65EF-4C1D-8342-48836C907E5D}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{645E55DE-8443-49C5-8C80-713824A2236A}"/>
+    <hyperlink ref="F11" r:id="rId14" tooltip="Ficha programa anual" display="https://www.ine.es/dyngs/IOE/es/fichaProg.htm?cid=1259946011386" xr:uid="{321F202D-DD2E-4673-91FB-112E7C40A39A}"/>
+    <hyperlink ref="F9" r:id="rId15" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127294" xr:uid="{0CF8C802-025D-D74A-AE33-A7827C3DD201}"/>
+    <hyperlink ref="F22" r:id="rId16" tooltip="Ficha Plan" xr:uid="{11CD31F8-2237-4756-84DA-304BC7963AC4}"/>
+    <hyperlink ref="F4" r:id="rId17" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127417" xr:uid="{D72037A8-0271-474E-BB5A-541D099743B2}"/>
+    <hyperlink ref="F16" r:id="rId18" xr:uid="{5C8BFBA1-51C9-F54A-BBA2-A484B9A1C7F9}"/>
+    <hyperlink ref="F17" r:id="rId19" xr:uid="{F451DBC9-AADD-DE44-9164-5B46F3712631}"/>
+    <hyperlink ref="F2" r:id="rId20" xr:uid="{6B0B7F25-5B9D-B942-B51F-F89308606A4C}"/>
+    <hyperlink ref="F25" r:id="rId21" tooltip="Ficha Plan" display="https://www.ine.es/dyngs/IOE/es/fichaPlan.htm?cid=1259946127417" xr:uid="{C9F329E9-5520-974F-BBC6-AC5C98F6B8E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB88284-90E4-4F7B-8CBB-91BF140508C2}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="16.6640625" style="41"/>
+    <col min="3" max="3" width="9.1640625" style="43" customWidth="1"/>
+    <col min="4" max="16384" width="16.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="67"/>
+      <c r="B3" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B11" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="69"/>
+      <c r="B12" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="69"/>
+      <c r="B14" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="69"/>
+      <c r="B15" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="69"/>
+      <c r="B16" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="69"/>
+      <c r="B17" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="69"/>
+      <c r="B18" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="69"/>
+      <c r="B19" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="69"/>
+      <c r="B20" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="69"/>
+      <c r="B21" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="69"/>
+      <c r="B22" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="69"/>
+      <c r="B23" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="69"/>
+      <c r="B24" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="69"/>
+      <c r="B25" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="69"/>
+      <c r="B26" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="69"/>
+      <c r="B27" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
+      <c r="B28" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="69"/>
+      <c r="B29" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="69"/>
+      <c r="B32" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="69"/>
+      <c r="B33" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="69"/>
+      <c r="B34" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="69"/>
+      <c r="B35" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="69"/>
+      <c r="B36" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="69"/>
+      <c r="B37" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="69"/>
+      <c r="B38" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="66"/>
+      <c r="B48" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="66"/>
+      <c r="B49" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="66"/>
+      <c r="B50" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="66"/>
+      <c r="B51" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="66"/>
+      <c r="B52" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="66"/>
+      <c r="B53" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="66"/>
+      <c r="B54" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="66"/>
+      <c r="B55" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="66"/>
+      <c r="B56" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="66"/>
+      <c r="B57" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="66"/>
+      <c r="B58" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="61" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="49">
-        <v>0</v>
-      </c>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>